--- a/ASP.NET CORE/QC_VOC/VOC/VOC/wwwroot/templates/OnsiteData.xlsx
+++ b/ASP.NET CORE/QC_VOC/VOC/VOC/wwwroot/templates/OnsiteData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Month</t>
   </si>
@@ -93,16 +93,26 @@
   </si>
   <si>
     <t>Production Date(YYYY-MM-DD)</t>
+  </si>
+  <si>
+    <t>Customer defect name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -155,13 +165,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,11 +464,11 @@
     <col min="1" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" customWidth="1"/>
     <col min="4" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="29" customWidth="1"/>
-    <col min="11" max="13" width="16" customWidth="1"/>
+    <col min="10" max="11" width="29" customWidth="1"/>
+    <col min="12" max="14" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,26 +499,29 @@
       <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>3</v>
       </c>
@@ -539,33 +553,34 @@
       <c r="J2" s="3">
         <v>44607</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3"/>
+      <c r="L2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="P2" s="4" t="s">
+      <c r="N2" s="2"/>
+      <c r="Q2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>$P$1:$P$2</formula1>
+      <formula1>$Q$1:$Q$2</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
-      <formula1>$Q$1:$Q$2</formula1>
+      <formula1>$R$1:$R$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2 L5">
-      <formula1>$R$1:$R$2</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2 M5">
+      <formula1>$S$1:$S$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
